--- a/DataClean/STIData_Cleaned.xlsx
+++ b/DataClean/STIData_Cleaned.xlsx
@@ -360,187 +360,187 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>IdNumber</t>
+          <t>subject_number</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>CaseStatus</t>
+          <t>sti_status</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>date_collection</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>A1Age</t>
+          <t>subjects_age</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>AgeCat</t>
+          <t>age_category</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>A2Occupation</t>
+          <t>occupation</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>A2Occupation_code</t>
+          <t>occupation_code</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>A3Church</t>
+          <t>church</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>A3Church_code</t>
+          <t>church_code</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>A4LevelOfEducation</t>
+          <t>education_level</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>A4LevelOfEducation_code</t>
+          <t>education_level_code</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>A5MaritalStatus</t>
+          <t>marital_status</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>A5MaritalStatus_code</t>
+          <t>marital_status_code</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>weight</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>height</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>C3StiYesno</t>
+          <t>has_sti</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>D1BurialSociety</t>
+          <t>burial_society</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>D1religiousgrp</t>
+          <t>religius_group</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>D1savingsClub</t>
+          <t>savings_club</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>D1tradersAssoc</t>
+          <t>traders_association</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>D2Group1</t>
+          <t>group_one</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>D2Group1_code</t>
+          <t>group_one_code</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>D2Group2</t>
+          <t>group_two</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>D2Group2_code</t>
+          <t>group_two_code</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>D3Education</t>
+          <t>education</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>D3FuneralAssistance</t>
+          <t>funeral_assistance</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>D3HealthServices</t>
+          <t>health_services</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>DurationOfillness</t>
+          <t>illness_duration</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>E8WhyhaveSTI</t>
+          <t>why_have_sti</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>E8WhyhaveSTI_code</t>
+          <t>having_sti_code</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>N10givereceiveforsex</t>
+          <t>givereceiveforsex</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>N10givereceiveforsex_code</t>
+          <t>givereceiveforsex_code</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>N11Usedcondom</t>
+          <t>used_condom</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>N11Usedcondom_code</t>
+          <t>used_condom_code</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>N12UseCondom</t>
+          <t>use_condom</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>N12UseCondom_code</t>
+          <t>use_condom_code</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Elderly</t>
+          <t>Older adults</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Teenagers</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -3419,7 +3419,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Elderly</t>
+          <t>Older adults</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -4593,7 +4593,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -5360,7 +5360,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Middle-aged adults</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -5773,7 +5773,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Middle-aged adults</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -5946,7 +5946,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Teenagers</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -6160,7 +6160,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Child</t>
+          <t>Teenagers</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -6578,7 +6578,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -6960,7 +6960,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -7538,7 +7538,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -7722,7 +7722,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -7892,7 +7892,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -8112,7 +8112,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -8282,7 +8282,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -8675,7 +8675,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -8887,7 +8887,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -9088,7 +9088,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -9294,7 +9294,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -9695,7 +9695,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -10077,7 +10077,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -10278,7 +10278,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -10470,7 +10470,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -10682,7 +10682,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -10883,7 +10883,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Middle-aged adults</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Middle-aged adults</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -11285,7 +11285,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -11695,7 +11695,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -11904,7 +11904,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -12097,7 +12097,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -12314,7 +12314,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -12487,7 +12487,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Middle-aged adults</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -12699,7 +12699,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Middle-aged adults</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -12892,7 +12892,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -13104,7 +13104,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -13277,7 +13277,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -13466,7 +13466,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Teenagers</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -13656,7 +13656,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -13868,7 +13868,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -14038,7 +14038,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Teenagers</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -14258,7 +14258,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Teenagers</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -14456,7 +14456,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -14648,7 +14648,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -14849,7 +14849,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Teenagers</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -15022,7 +15022,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -15239,7 +15239,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -15428,7 +15428,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -15621,7 +15621,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -15810,7 +15810,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -15974,7 +15974,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -16186,7 +16186,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -16379,7 +16379,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -16596,7 +16596,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -16766,7 +16766,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -17181,7 +17181,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -17392,7 +17392,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -17593,7 +17593,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -17805,7 +17805,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -18006,7 +18006,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -18181,7 +18181,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -18376,7 +18376,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -18559,7 +18559,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -18729,7 +18729,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -18946,7 +18946,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -19147,7 +19147,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -19356,7 +19356,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -19551,7 +19551,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -19969,7 +19969,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -20189,7 +20189,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -20390,7 +20390,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -20602,7 +20602,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -20803,7 +20803,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -21023,7 +21023,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -21216,7 +21216,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -21408,7 +21408,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -21603,7 +21603,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -21789,7 +21789,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Teenagers</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -21982,7 +21982,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -22194,7 +22194,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -22378,7 +22378,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -22590,7 +22590,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -22791,7 +22791,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -23002,7 +23002,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -23175,7 +23175,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -23387,7 +23387,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Middle-aged adults</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -23588,7 +23588,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -23808,7 +23808,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -23981,7 +23981,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -24198,7 +24198,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -24391,7 +24391,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -24611,7 +24611,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -24812,7 +24812,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -25032,7 +25032,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -25225,7 +25225,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -25445,7 +25445,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -25643,7 +25643,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -25835,7 +25835,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -26019,7 +26019,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -26211,7 +26211,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -26412,7 +26412,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -26621,7 +26621,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -26819,7 +26819,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -27008,7 +27008,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -27201,7 +27201,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -27393,7 +27393,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -27586,7 +27586,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -27803,7 +27803,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -27976,7 +27976,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -28193,7 +28193,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -28366,7 +28366,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -28580,7 +28580,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -28753,7 +28753,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -28973,7 +28973,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -29174,7 +29174,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -29391,7 +29391,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -29584,7 +29584,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -29796,7 +29796,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -29989,7 +29989,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -30178,7 +30178,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -30371,7 +30371,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -30583,7 +30583,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -30784,7 +30784,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -30996,7 +30996,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -31197,7 +31197,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -31403,7 +31403,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -31596,7 +31596,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -31782,7 +31782,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -31980,7 +31980,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -32192,7 +32192,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Middle-aged adults</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -32365,7 +32365,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -32577,7 +32577,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -32767,7 +32767,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -32959,7 +32959,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -33129,7 +33129,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -33315,7 +33315,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -33485,7 +33485,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -33694,7 +33694,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -33867,7 +33867,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -34079,7 +34079,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -34291,7 +34291,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -34497,7 +34497,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -34709,7 +34709,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -34892,7 +34892,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -35104,7 +35104,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -35296,7 +35296,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -35497,7 +35497,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -35717,7 +35717,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -35921,7 +35921,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Teenagers</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -36110,7 +36110,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -36319,7 +36319,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -36531,7 +36531,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -36735,7 +36735,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -36927,7 +36927,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -37130,7 +37130,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Middle-aged adults</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -37342,7 +37342,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Senior Adult</t>
+          <t>Middle-aged adults</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -37554,7 +37554,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -37763,7 +37763,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -37975,7 +37975,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -38187,7 +38187,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -38393,7 +38393,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -38605,7 +38605,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -38803,7 +38803,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -38992,7 +38992,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -39204,7 +39204,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -39393,7 +39393,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -39605,7 +39605,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -39817,7 +39817,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -39995,7 +39995,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -40215,7 +40215,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -40410,7 +40410,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -40599,7 +40599,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -40777,7 +40777,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -40963,7 +40963,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -41172,7 +41172,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -41383,7 +41383,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -41587,7 +41587,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Middle-aged adults</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -41799,7 +41799,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Middle-aged adults</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -41995,7 +41995,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -42187,7 +42187,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -42391,7 +42391,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -42583,7 +42583,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -42789,7 +42789,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Middle-aged adults</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -42998,7 +42998,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Middle-aged adults</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -43193,7 +43193,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Teenagers</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -43376,7 +43376,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -43580,7 +43580,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -43783,7 +43783,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -43961,7 +43961,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -44181,7 +44181,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Young Adult</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -44387,7 +44387,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -44599,7 +44599,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -44803,7 +44803,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Child</t>
+          <t>Teenagers</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -44992,7 +44992,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -45204,7 +45204,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -45424,7 +45424,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -45617,7 +45617,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Youth</t>
+          <t>Young adults</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">

--- a/DataClean/STIData_Cleaned.xlsx
+++ b/DataClean/STIData_Cleaned.xlsx
@@ -579,9 +579,27 @@
       <c r="L2">
         <v>182</v>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P2">
+        <v>999</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -611,6 +629,11 @@
       </c>
       <c r="W2">
         <v>27</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y2">
         <v>21</v>
@@ -703,6 +726,21 @@
       <c r="L3">
         <v>166</v>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P3">
         <v>7</v>
       </c>
@@ -729,6 +767,11 @@
       <c r="U3" t="inlineStr">
         <is>
           <t>Yes</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="W3">
@@ -830,9 +873,27 @@
       <c r="L4">
         <v>166</v>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P4">
+        <v>999</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -862,6 +923,11 @@
       </c>
       <c r="W4">
         <v>30</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y4">
         <v>17</v>
@@ -954,9 +1020,19 @@
       <c r="L5">
         <v>166</v>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>Burial society</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P5">
@@ -1091,6 +1167,11 @@
       <c r="L6">
         <v>156</v>
       </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -1099,6 +1180,14 @@
       <c r="O6" t="inlineStr">
         <is>
           <t>Burial society</t>
+        </is>
+      </c>
+      <c r="P6">
+        <v>999</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1129,6 +1218,14 @@
       <c r="W6">
         <v>57</v>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>999</v>
+      </c>
       <c r="Z6" t="inlineStr">
         <is>
           <t>No</t>
@@ -1137,6 +1234,11 @@
       <c r="AA6" t="inlineStr">
         <is>
           <t>Spouse</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1212,6 +1314,21 @@
       <c r="L7">
         <v>154</v>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P7">
         <v>4</v>
       </c>
@@ -1344,6 +1461,29 @@
       <c r="L8">
         <v>170</v>
       </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P8">
+        <v>999</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R8" t="inlineStr">
         <is>
           <t>No</t>
@@ -1371,6 +1511,11 @@
       </c>
       <c r="W8">
         <v>19</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y8">
         <v>20</v>
@@ -1463,6 +1608,11 @@
       <c r="L9">
         <v>158</v>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -1605,6 +1755,11 @@
       <c r="L10">
         <v>168</v>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -1615,6 +1770,14 @@
           <t>Savings club</t>
         </is>
       </c>
+      <c r="P10">
+        <v>999</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R10" t="inlineStr">
         <is>
           <t>No</t>
@@ -1633,6 +1796,19 @@
       <c r="U10" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="W10">
+        <v>999</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="Y10">
@@ -1873,6 +2049,11 @@
       <c r="L12">
         <v>150</v>
       </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -1881,6 +2062,14 @@
       <c r="O12" t="inlineStr">
         <is>
           <t>Burial society</t>
+        </is>
+      </c>
+      <c r="P12">
+        <v>999</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1910,6 +2099,11 @@
       </c>
       <c r="W12">
         <v>30</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y12">
         <v>17</v>
@@ -2002,6 +2196,21 @@
       <c r="L13">
         <v>159</v>
       </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P13">
         <v>3</v>
       </c>
@@ -2134,9 +2343,27 @@
       <c r="L14">
         <v>164</v>
       </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P14">
+        <v>999</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -2166,6 +2393,11 @@
       </c>
       <c r="W14">
         <v>19</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y14">
         <v>20</v>
@@ -2263,6 +2495,16 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P15">
         <v>30</v>
       </c>
@@ -2295,6 +2537,9 @@
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="W15">
+        <v>999</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
@@ -2392,6 +2637,11 @@
       <c r="L16">
         <v>158</v>
       </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
           <t>Business association</t>
@@ -2400,6 +2650,14 @@
       <c r="O16" t="inlineStr">
         <is>
           <t>Savings club</t>
+        </is>
+      </c>
+      <c r="P16">
+        <v>999</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -2429,6 +2687,11 @@
       </c>
       <c r="W16">
         <v>21</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y16">
         <v>21</v>
@@ -2521,6 +2784,21 @@
       <c r="L17">
         <v>164</v>
       </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P17">
         <v>4</v>
       </c>
@@ -2562,6 +2840,9 @@
           <t>Gud</t>
         </is>
       </c>
+      <c r="Y17">
+        <v>999</v>
+      </c>
       <c r="Z17" t="inlineStr">
         <is>
           <t>No</t>
@@ -2570,6 +2851,11 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>Spouse</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -2645,9 +2931,27 @@
       <c r="L18">
         <v>171</v>
       </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr">
         <is>
           <t>Savings club</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P18">
+        <v>999</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -2678,6 +2982,14 @@
       <c r="W18">
         <v>26</v>
       </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>999</v>
+      </c>
       <c r="Z18" t="inlineStr">
         <is>
           <t>No</t>
@@ -2686,6 +2998,11 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>Spouse</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -2761,6 +3078,21 @@
       <c r="L19">
         <v>163</v>
       </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P19">
         <v>3</v>
       </c>
@@ -2787,6 +3119,11 @@
       <c r="U19" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="W19">
@@ -2903,6 +3240,14 @@
           <t>Savings club</t>
         </is>
       </c>
+      <c r="P20">
+        <v>999</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R20" t="inlineStr">
         <is>
           <t>No</t>
@@ -2930,6 +3275,11 @@
       </c>
       <c r="W20">
         <v>20</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y20">
         <v>20</v>
@@ -3022,6 +3372,11 @@
       <c r="L21">
         <v>158</v>
       </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -3164,6 +3519,29 @@
       <c r="L22">
         <v>155</v>
       </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P22">
+        <v>999</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R22" t="inlineStr">
         <is>
           <t>No</t>
@@ -3191,6 +3569,11 @@
       </c>
       <c r="W22">
         <v>36</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y22">
         <v>23</v>
@@ -3283,9 +3666,19 @@
       <c r="L23">
         <v>175</v>
       </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P23">
@@ -3320,6 +3713,9 @@
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="W23">
+        <v>999</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
@@ -3417,9 +3813,27 @@
       <c r="L24">
         <v>150</v>
       </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P24">
+        <v>999</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -3449,6 +3863,11 @@
       </c>
       <c r="W24">
         <v>32</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y24">
         <v>20</v>
@@ -3541,6 +3960,21 @@
       <c r="L25">
         <v>161</v>
       </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P25">
         <v>4</v>
       </c>
@@ -3673,9 +4107,27 @@
       <c r="L26">
         <v>160</v>
       </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P26">
+        <v>999</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -3705,6 +4157,11 @@
       </c>
       <c r="W26">
         <v>23</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y26">
         <v>23</v>
@@ -3797,6 +4254,11 @@
       <c r="L27">
         <v>157</v>
       </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr">
         <is>
           <t>Burial society</t>
@@ -3939,6 +4401,29 @@
       <c r="L28">
         <v>168</v>
       </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P28">
+        <v>999</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R28" t="inlineStr">
         <is>
           <t>No</t>
@@ -3966,6 +4451,11 @@
       </c>
       <c r="W28">
         <v>39</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y28">
         <v>16</v>
@@ -4058,6 +4548,11 @@
       <c r="L29">
         <v>170</v>
       </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr">
         <is>
           <t>Burial society</t>
@@ -4095,6 +4590,14 @@
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="W29">
+        <v>999</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
@@ -4192,6 +4695,11 @@
       <c r="L30">
         <v>166</v>
       </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -4200,6 +4708,14 @@
       <c r="O30" t="inlineStr">
         <is>
           <t>Savings club</t>
+        </is>
+      </c>
+      <c r="P30">
+        <v>999</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -4229,6 +4745,11 @@
       </c>
       <c r="W30">
         <v>24</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y30">
         <v>14</v>
@@ -4468,9 +4989,27 @@
       <c r="L32">
         <v>162</v>
       </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P32">
+        <v>999</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -4500,6 +5039,11 @@
       </c>
       <c r="W32">
         <v>36</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y32">
         <v>17</v>
@@ -4592,6 +5136,21 @@
       <c r="L33">
         <v>165</v>
       </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P33">
         <v>3</v>
       </c>
@@ -4724,9 +5283,27 @@
       <c r="L34">
         <v>154</v>
       </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P34">
+        <v>999</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -4756,6 +5333,11 @@
       </c>
       <c r="W34">
         <v>33</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y34">
         <v>17</v>
@@ -4848,9 +5430,19 @@
       <c r="L35">
         <v>167</v>
       </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr">
         <is>
           <t>Savings club</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P35">
@@ -4985,6 +5577,29 @@
       <c r="L36">
         <v>165</v>
       </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P36">
+        <v>999</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R36" t="inlineStr">
         <is>
           <t>No</t>
@@ -5012,6 +5627,11 @@
       </c>
       <c r="W36">
         <v>30</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y36">
         <v>20</v>
@@ -5104,8 +5724,28 @@
       <c r="L37">
         <v>150</v>
       </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P37">
         <v>4</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -5231,6 +5871,29 @@
       <c r="L38">
         <v>164</v>
       </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P38">
+        <v>999</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R38" t="inlineStr">
         <is>
           <t>No</t>
@@ -5258,6 +5921,11 @@
       </c>
       <c r="W38">
         <v>31</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y38">
         <v>15</v>
@@ -5350,6 +6018,11 @@
       <c r="L39">
         <v>158</v>
       </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -5492,6 +6165,29 @@
       <c r="L40">
         <v>143</v>
       </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P40">
+        <v>999</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R40" t="inlineStr">
         <is>
           <t>No</t>
@@ -5519,6 +6215,11 @@
       </c>
       <c r="W40">
         <v>28</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y40">
         <v>21</v>
@@ -5611,9 +6312,19 @@
       <c r="L41">
         <v>180</v>
       </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P41">
@@ -5673,6 +6384,11 @@
       <c r="AB41" t="inlineStr">
         <is>
           <t>17+years</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="AD41">
@@ -5743,11 +6459,29 @@
       <c r="L42">
         <v>159</v>
       </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr">
         <is>
           <t>Burial society</t>
         </is>
       </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P42">
+        <v>999</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R42" t="inlineStr">
         <is>
           <t>No</t>
@@ -5766,10 +6500,20 @@
       <c r="U42" t="inlineStr">
         <is>
           <t>Yes</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="W42">
         <v>22</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y42">
         <v>16</v>
@@ -5862,9 +6606,19 @@
       <c r="L43">
         <v>161</v>
       </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P43">
@@ -5999,6 +6753,11 @@
       <c r="L44">
         <v>145</v>
       </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -6007,6 +6766,14 @@
       <c r="O44" t="inlineStr">
         <is>
           <t>Burial society</t>
+        </is>
+      </c>
+      <c r="P44">
+        <v>999</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -6036,6 +6803,11 @@
       </c>
       <c r="W44">
         <v>31</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y44">
         <v>17</v>
@@ -6138,6 +6910,11 @@
           <t>Religious group</t>
         </is>
       </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P45">
         <v>365</v>
       </c>
@@ -6165,6 +6942,14 @@
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="W45">
+        <v>999</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
@@ -6262,6 +7047,11 @@
       <c r="L46">
         <v>149</v>
       </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr">
         <is>
           <t>Burial society</t>
@@ -6270,6 +7060,14 @@
       <c r="O46" t="inlineStr">
         <is>
           <t>Savings club</t>
+        </is>
+      </c>
+      <c r="P46">
+        <v>999</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -6299,6 +7097,11 @@
       </c>
       <c r="W46">
         <v>25</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y46">
         <v>25</v>
@@ -6391,9 +7194,19 @@
       <c r="L47">
         <v>155</v>
       </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P47">
@@ -6423,6 +7236,14 @@
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="W47">
+        <v>999</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
@@ -6520,6 +7341,29 @@
       <c r="L48">
         <v>154</v>
       </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P48">
+        <v>999</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R48" t="inlineStr">
         <is>
           <t>No</t>
@@ -6547,6 +7391,11 @@
       </c>
       <c r="W48">
         <v>20</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y48">
         <v>15</v>
@@ -6649,6 +7498,11 @@
           <t>Religious group</t>
         </is>
       </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P49">
         <v>6</v>
       </c>
@@ -6781,6 +7635,11 @@
       <c r="L50">
         <v>159</v>
       </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -6789,6 +7648,14 @@
       <c r="O50" t="inlineStr">
         <is>
           <t>Savings club</t>
+        </is>
+      </c>
+      <c r="P50">
+        <v>999</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -6818,6 +7685,11 @@
       </c>
       <c r="W50">
         <v>29</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y50">
         <v>22</v>
@@ -6910,6 +7782,21 @@
       <c r="L51">
         <v>148</v>
       </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P51">
         <v>2</v>
       </c>
@@ -7042,9 +7929,19 @@
       <c r="L52">
         <v>162</v>
       </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P52">
@@ -7179,6 +8076,11 @@
       <c r="L53">
         <v>165</v>
       </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -7187,6 +8089,14 @@
       <c r="O53" t="inlineStr">
         <is>
           <t>Burial society</t>
+        </is>
+      </c>
+      <c r="P53">
+        <v>999</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -7216,6 +8126,11 @@
       </c>
       <c r="W53">
         <v>37</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y53">
         <v>16</v>
@@ -7308,9 +8223,19 @@
       <c r="L54">
         <v>160</v>
       </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P54">
@@ -7445,9 +8370,27 @@
       <c r="L55">
         <v>155</v>
       </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P55">
+        <v>999</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -7477,6 +8420,11 @@
       </c>
       <c r="W55">
         <v>38</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y55">
         <v>21</v>
@@ -7569,9 +8517,19 @@
       <c r="L56">
         <v>170</v>
       </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P56">
@@ -7706,6 +8664,11 @@
       <c r="L57">
         <v>158</v>
       </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -7714,6 +8677,14 @@
       <c r="O57" t="inlineStr">
         <is>
           <t>Burial society</t>
+        </is>
+      </c>
+      <c r="P57">
+        <v>999</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -7743,6 +8714,11 @@
       </c>
       <c r="W57">
         <v>28</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y57">
         <v>22</v>
@@ -7835,9 +8811,19 @@
       <c r="L58">
         <v>164</v>
       </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P58">
@@ -7972,9 +8958,27 @@
       <c r="L59">
         <v>161</v>
       </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P59">
+        <v>999</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -8004,6 +9008,11 @@
       </c>
       <c r="W59">
         <v>25</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y59">
         <v>22</v>
@@ -8096,6 +9105,11 @@
       <c r="L60">
         <v>163</v>
       </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr">
         <is>
           <t>Savings club</t>
@@ -8238,6 +9252,29 @@
       <c r="L61">
         <v>164</v>
       </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P61">
+        <v>999</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R61" t="inlineStr">
         <is>
           <t>No</t>
@@ -8265,6 +9302,11 @@
       </c>
       <c r="W61">
         <v>39</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y61">
         <v>19</v>
@@ -8357,9 +9399,19 @@
       <c r="L62">
         <v>163</v>
       </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N62" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P62">
@@ -8494,9 +9546,27 @@
       <c r="L63">
         <v>166</v>
       </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr">
         <is>
           <t>Burial society</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P63">
+        <v>999</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -8526,6 +9596,11 @@
       </c>
       <c r="W63">
         <v>30</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y63">
         <v>23</v>
@@ -8618,9 +9693,19 @@
       <c r="L64">
         <v>146</v>
       </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P64">
@@ -8760,6 +9845,24 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P65">
+        <v>999</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R65" t="inlineStr">
         <is>
           <t>No</t>
@@ -8787,6 +9890,11 @@
       </c>
       <c r="W65">
         <v>30</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y65">
         <v>23</v>
@@ -8879,6 +9987,21 @@
       <c r="L66">
         <v>160</v>
       </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P66">
         <v>4</v>
       </c>
@@ -9011,9 +10134,27 @@
       <c r="L67">
         <v>150</v>
       </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N67" t="inlineStr">
         <is>
           <t>Savings club</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P67">
+        <v>999</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -9043,6 +10184,11 @@
       </c>
       <c r="W67">
         <v>21</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y67">
         <v>17</v>
@@ -9135,9 +10281,19 @@
       <c r="L68">
         <v>155</v>
       </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N68" t="inlineStr">
         <is>
           <t>Business association</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P68">
@@ -9272,6 +10428,29 @@
       <c r="L69">
         <v>157</v>
       </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P69">
+        <v>999</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R69" t="inlineStr">
         <is>
           <t>No</t>
@@ -9299,6 +10478,11 @@
       </c>
       <c r="W69">
         <v>38</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y69">
         <v>17</v>
@@ -9538,6 +10722,11 @@
       <c r="L71">
         <v>176</v>
       </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N71" t="inlineStr">
         <is>
           <t>Business association</t>
@@ -9546,6 +10735,14 @@
       <c r="O71" t="inlineStr">
         <is>
           <t>Savings club</t>
+        </is>
+      </c>
+      <c r="P71">
+        <v>999</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -9575,6 +10772,11 @@
       </c>
       <c r="W71">
         <v>27</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y71">
         <v>17</v>
@@ -9667,6 +10869,21 @@
       <c r="L72">
         <v>157</v>
       </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P72">
         <v>5</v>
       </c>
@@ -9799,6 +11016,11 @@
       <c r="L73">
         <v>163</v>
       </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N73" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -9807,6 +11029,14 @@
       <c r="O73" t="inlineStr">
         <is>
           <t>Burial society</t>
+        </is>
+      </c>
+      <c r="P73">
+        <v>999</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -9836,6 +11066,11 @@
       </c>
       <c r="W73">
         <v>31</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y73">
         <v>17</v>
@@ -9928,6 +11163,29 @@
       <c r="L74">
         <v>153</v>
       </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P74">
+        <v>999</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R74" t="inlineStr">
         <is>
           <t>No</t>
@@ -9955,6 +11213,11 @@
       </c>
       <c r="W74">
         <v>18</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y74">
         <v>16</v>
@@ -10095,6 +11358,9 @@
           <t>No</t>
         </is>
       </c>
+      <c r="W75">
+        <v>999</v>
+      </c>
       <c r="X75" t="inlineStr">
         <is>
           <t>Ud</t>
@@ -10196,6 +11462,16 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P76">
         <v>3</v>
       </c>
@@ -10228,6 +11504,9 @@
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="W76">
+        <v>999</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
@@ -10325,9 +11604,27 @@
       <c r="L77">
         <v>165</v>
       </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N77" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P77">
+        <v>999</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -10357,6 +11654,11 @@
       </c>
       <c r="W77">
         <v>20</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y77">
         <v>20</v>
@@ -10449,6 +11751,21 @@
       <c r="L78">
         <v>157</v>
       </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P78">
         <v>10</v>
       </c>
@@ -10581,6 +11898,29 @@
       <c r="L79">
         <v>152</v>
       </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P79">
+        <v>999</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R79" t="inlineStr">
         <is>
           <t>No</t>
@@ -10599,6 +11939,19 @@
       <c r="U79" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="W79">
+        <v>999</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="Y79">
@@ -10692,9 +12045,19 @@
       <c r="L80">
         <v>157</v>
       </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N80" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P80">
@@ -10829,9 +12192,27 @@
       <c r="L81">
         <v>160</v>
       </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N81" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P81">
+        <v>999</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -10861,6 +12242,11 @@
       </c>
       <c r="W81">
         <v>25</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y81">
         <v>19</v>
@@ -10953,6 +12339,11 @@
       <c r="L82">
         <v>159</v>
       </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N82" t="inlineStr">
         <is>
           <t>Burial society</t>
@@ -11095,6 +12486,29 @@
       <c r="L83">
         <v>182</v>
       </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P83">
+        <v>999</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R83" t="inlineStr">
         <is>
           <t>No</t>
@@ -11122,6 +12536,11 @@
       </c>
       <c r="W83">
         <v>21</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y83">
         <v>21</v>
@@ -11214,6 +12633,11 @@
       <c r="L84">
         <v>158</v>
       </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N84" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -11356,6 +12780,11 @@
       <c r="L85">
         <v>170</v>
       </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N85" t="inlineStr">
         <is>
           <t>Savings club</t>
@@ -11364,6 +12793,14 @@
       <c r="O85" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="P85">
+        <v>999</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -11393,6 +12830,11 @@
       </c>
       <c r="W85">
         <v>26</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y85">
         <v>19</v>
@@ -11485,6 +12927,11 @@
       <c r="L86">
         <v>170</v>
       </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N86" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -11522,6 +12969,14 @@
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="W86">
+        <v>999</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
@@ -11619,6 +13074,11 @@
       <c r="L87">
         <v>162</v>
       </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N87" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -11627,6 +13087,14 @@
       <c r="O87" t="inlineStr">
         <is>
           <t>Burial society</t>
+        </is>
+      </c>
+      <c r="P87">
+        <v>999</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -11656,6 +13124,11 @@
       </c>
       <c r="W87">
         <v>23</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y87">
         <v>21</v>
@@ -11748,9 +13221,19 @@
       <c r="L88">
         <v>177</v>
       </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N88" t="inlineStr">
         <is>
           <t>Savings club</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P88">
@@ -11885,6 +13368,11 @@
       <c r="L89">
         <v>161</v>
       </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N89" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -11893,6 +13381,14 @@
       <c r="O89" t="inlineStr">
         <is>
           <t>Burial society</t>
+        </is>
+      </c>
+      <c r="P89">
+        <v>999</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -11922,6 +13418,11 @@
       </c>
       <c r="W89">
         <v>22</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y89">
         <v>24</v>
@@ -12014,6 +13515,21 @@
       <c r="L90">
         <v>162</v>
       </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P90">
         <v>7</v>
       </c>
@@ -12042,14 +13558,35 @@
           <t>No</t>
         </is>
       </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="W90">
+        <v>999</v>
+      </c>
       <c r="X90" t="inlineStr">
         <is>
           <t>Gud</t>
         </is>
       </c>
+      <c r="Y90">
+        <v>999</v>
+      </c>
+      <c r="Z90" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="AA90" t="inlineStr">
         <is>
           <t>Spouse</t>
+        </is>
+      </c>
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="AC90" t="inlineStr">
@@ -12125,6 +13662,11 @@
       <c r="L91">
         <v>157</v>
       </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N91" t="inlineStr">
         <is>
           <t>Burial society</t>
@@ -12135,6 +13677,14 @@
           <t>Business association</t>
         </is>
       </c>
+      <c r="P91">
+        <v>999</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R91" t="inlineStr">
         <is>
           <t>No</t>
@@ -12153,6 +13703,19 @@
       <c r="U91" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="W91">
+        <v>999</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="Y91">
@@ -12246,6 +13809,21 @@
       <c r="L92">
         <v>152</v>
       </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P92">
         <v>4</v>
       </c>
@@ -12273,6 +13851,14 @@
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="W92">
+        <v>999</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
@@ -12370,6 +13956,29 @@
       <c r="L93">
         <v>168</v>
       </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P93">
+        <v>999</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R93" t="inlineStr">
         <is>
           <t>No</t>
@@ -12397,6 +14006,11 @@
       </c>
       <c r="W93">
         <v>22</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y93">
         <v>17</v>
@@ -12489,6 +14103,11 @@
       <c r="L94">
         <v>156</v>
       </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N94" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -12631,6 +14250,11 @@
       <c r="L95">
         <v>162</v>
       </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N95" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -12639,6 +14263,14 @@
       <c r="O95" t="inlineStr">
         <is>
           <t>Burial society</t>
+        </is>
+      </c>
+      <c r="P95">
+        <v>999</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -12668,6 +14300,11 @@
       </c>
       <c r="W95">
         <v>25</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y95">
         <v>21</v>
@@ -12760,9 +14397,19 @@
       <c r="L96">
         <v>171</v>
       </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N96" t="inlineStr">
         <is>
           <t>Burial society</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P96">
@@ -12897,6 +14544,11 @@
       <c r="L97">
         <v>156</v>
       </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N97" t="inlineStr">
         <is>
           <t>Burial society</t>
@@ -12907,6 +14559,14 @@
           <t>Religious group</t>
         </is>
       </c>
+      <c r="P97">
+        <v>999</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R97" t="inlineStr">
         <is>
           <t>No</t>
@@ -12925,6 +14585,19 @@
       <c r="U97" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="W97">
+        <v>999</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="Y97">
@@ -13018,6 +14691,11 @@
       <c r="L98">
         <v>162</v>
       </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N98" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -13160,6 +14838,11 @@
       <c r="L99">
         <v>162</v>
       </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N99" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -13168,6 +14851,14 @@
       <c r="O99" t="inlineStr">
         <is>
           <t>Burial society</t>
+        </is>
+      </c>
+      <c r="P99">
+        <v>999</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
@@ -13197,6 +14888,11 @@
       </c>
       <c r="W99">
         <v>29</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y99">
         <v>23</v>
@@ -13436,6 +15132,11 @@
       <c r="L101">
         <v>155</v>
       </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N101" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -13444,6 +15145,14 @@
       <c r="O101" t="inlineStr">
         <is>
           <t>Burial society</t>
+        </is>
+      </c>
+      <c r="P101">
+        <v>999</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
@@ -13473,6 +15182,11 @@
       </c>
       <c r="W101">
         <v>20</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y101">
         <v>19</v>
@@ -13565,9 +15279,19 @@
       <c r="L102">
         <v>158</v>
       </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N102" t="inlineStr">
         <is>
           <t>Savings club</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P102">
@@ -13702,6 +15426,11 @@
       <c r="L103">
         <v>168</v>
       </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N103" t="inlineStr">
         <is>
           <t>Burial society</t>
@@ -13710,6 +15439,14 @@
       <c r="O103" t="inlineStr">
         <is>
           <t>Savings club</t>
+        </is>
+      </c>
+      <c r="P103">
+        <v>999</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -13739,6 +15476,11 @@
       </c>
       <c r="W103">
         <v>18</v>
+      </c>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y103">
         <v>17</v>
@@ -13978,9 +15720,27 @@
       <c r="L105">
         <v>156</v>
       </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N105" t="inlineStr">
         <is>
           <t>Savings club</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P105">
+        <v>999</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -14010,6 +15770,11 @@
       </c>
       <c r="W105">
         <v>32</v>
+      </c>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y105">
         <v>21</v>
@@ -14102,6 +15867,21 @@
       <c r="L106">
         <v>164</v>
       </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P106">
         <v>5</v>
       </c>
@@ -14234,6 +16014,11 @@
       <c r="L107">
         <v>177</v>
       </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N107" t="inlineStr">
         <is>
           <t>Business association</t>
@@ -14244,6 +16029,14 @@
           <t>Savings club</t>
         </is>
       </c>
+      <c r="P107">
+        <v>999</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R107" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -14262,6 +16055,19 @@
       <c r="U107" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="W107">
+        <v>999</v>
+      </c>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="Y107">
@@ -14355,6 +16161,21 @@
       <c r="L108">
         <v>145</v>
       </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P108">
         <v>7</v>
       </c>
@@ -14382,6 +16203,14 @@
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="W108">
+        <v>999</v>
       </c>
       <c r="X108" t="inlineStr">
         <is>
@@ -14479,9 +16308,27 @@
       <c r="L109">
         <v>163</v>
       </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N109" t="inlineStr">
         <is>
           <t>Savings club</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P109">
+        <v>999</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
@@ -14511,6 +16358,11 @@
       </c>
       <c r="W109">
         <v>18</v>
+      </c>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y109">
         <v>18</v>
@@ -14613,6 +16465,11 @@
           <t>Religious group</t>
         </is>
       </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P110">
         <v>7</v>
       </c>
@@ -14745,11 +16602,29 @@
       <c r="L111">
         <v>152</v>
       </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N111" t="inlineStr">
         <is>
           <t>Religious group</t>
         </is>
       </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P111">
+        <v>999</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R111" t="inlineStr">
         <is>
           <t>No</t>
@@ -14768,6 +16643,19 @@
       <c r="U111" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="W111">
+        <v>999</v>
+      </c>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="Y111">
@@ -14861,9 +16749,19 @@
       <c r="L112">
         <v>145</v>
       </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N112" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P112">
@@ -14998,6 +16896,11 @@
       <c r="L113">
         <v>156</v>
       </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N113" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -15006,6 +16909,14 @@
       <c r="O113" t="inlineStr">
         <is>
           <t>Burial society</t>
+        </is>
+      </c>
+      <c r="P113">
+        <v>999</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
@@ -15035,6 +16946,11 @@
       </c>
       <c r="W113">
         <v>26</v>
+      </c>
+      <c r="X113" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y113">
         <v>21</v>
@@ -15127,6 +17043,11 @@
       <c r="L114">
         <v>167</v>
       </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N114" t="inlineStr">
         <is>
           <t>Burial society</t>
@@ -15164,6 +17085,14 @@
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="W114">
+        <v>999</v>
       </c>
       <c r="X114" t="inlineStr">
         <is>
@@ -15266,6 +17195,24 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P115">
+        <v>999</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R115" t="inlineStr">
         <is>
           <t>No</t>
@@ -15293,6 +17240,11 @@
       </c>
       <c r="W115">
         <v>23</v>
+      </c>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y115">
         <v>15</v>
@@ -15385,9 +17337,19 @@
       <c r="L116">
         <v>167</v>
       </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N116" t="inlineStr">
         <is>
           <t>Savings club</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P116">
@@ -15522,6 +17484,11 @@
       <c r="L117">
         <v>158</v>
       </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N117" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -15530,6 +17497,14 @@
       <c r="O117" t="inlineStr">
         <is>
           <t>Burial society</t>
+        </is>
+      </c>
+      <c r="P117">
+        <v>999</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
@@ -15559,6 +17534,11 @@
       </c>
       <c r="W117">
         <v>44</v>
+      </c>
+      <c r="X117" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y117">
         <v>16</v>
@@ -15651,6 +17631,11 @@
       <c r="L118">
         <v>163</v>
       </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N118" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -15793,6 +17778,29 @@
       <c r="L119">
         <v>162</v>
       </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P119">
+        <v>999</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R119" t="inlineStr">
         <is>
           <t>No</t>
@@ -15820,6 +17828,11 @@
       </c>
       <c r="W119">
         <v>28</v>
+      </c>
+      <c r="X119" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y119">
         <v>25</v>
@@ -15912,6 +17925,11 @@
       <c r="L120">
         <v>152</v>
       </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N120" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -16054,9 +18072,27 @@
       <c r="L121">
         <v>160</v>
       </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N121" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P121">
+        <v>999</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
@@ -16086,6 +18122,11 @@
       </c>
       <c r="W121">
         <v>49</v>
+      </c>
+      <c r="X121" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y121">
         <v>16</v>
@@ -16325,6 +18366,11 @@
       <c r="L123">
         <v>160</v>
       </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N123" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -16333,6 +18379,14 @@
       <c r="O123" t="inlineStr">
         <is>
           <t>Burial society</t>
+        </is>
+      </c>
+      <c r="P123">
+        <v>999</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
@@ -16362,6 +18416,11 @@
       </c>
       <c r="W123">
         <v>28</v>
+      </c>
+      <c r="X123" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y123">
         <v>21</v>
@@ -16454,6 +18513,11 @@
       <c r="L124">
         <v>163</v>
       </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N124" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -16596,9 +18660,27 @@
       <c r="L125">
         <v>148</v>
       </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N125" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P125">
+        <v>999</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
@@ -16628,6 +18710,11 @@
       </c>
       <c r="W125">
         <v>21</v>
+      </c>
+      <c r="X125" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y125">
         <v>22</v>
@@ -16720,6 +18807,11 @@
       <c r="L126">
         <v>150</v>
       </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N126" t="inlineStr">
         <is>
           <t>Burial society</t>
@@ -16862,6 +18954,11 @@
       <c r="L127">
         <v>151</v>
       </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N127" t="inlineStr">
         <is>
           <t>Burial society</t>
@@ -16870,6 +18967,14 @@
       <c r="O127" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="P127">
+        <v>999</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
@@ -16899,6 +19004,11 @@
       </c>
       <c r="W127">
         <v>29</v>
+      </c>
+      <c r="X127" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y127">
         <v>20</v>
@@ -16991,6 +19101,21 @@
       <c r="L128">
         <v>166</v>
       </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P128">
         <v>7</v>
       </c>
@@ -17123,11 +19248,29 @@
       <c r="L129">
         <v>168</v>
       </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N129" t="inlineStr">
         <is>
           <t>Savings club</t>
         </is>
       </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P129">
+        <v>999</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R129" t="inlineStr">
         <is>
           <t>No</t>
@@ -17146,6 +19289,19 @@
       <c r="U129" t="inlineStr">
         <is>
           <t>Yes</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="W129">
+        <v>999</v>
+      </c>
+      <c r="X129" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="Y129">
@@ -17239,6 +19395,21 @@
       <c r="L130">
         <v>168</v>
       </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P130">
         <v>7</v>
       </c>
@@ -17371,6 +19542,11 @@
       <c r="L131">
         <v>138</v>
       </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N131" t="inlineStr">
         <is>
           <t>Business association</t>
@@ -17379,6 +19555,14 @@
       <c r="O131" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="P131">
+        <v>999</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
@@ -17408,6 +19592,11 @@
       </c>
       <c r="W131">
         <v>33</v>
+      </c>
+      <c r="X131" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y131">
         <v>20</v>
@@ -17500,9 +19689,19 @@
       <c r="L132">
         <v>157</v>
       </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N132" t="inlineStr">
         <is>
           <t>Burial society</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P132">
@@ -17637,6 +19836,11 @@
       <c r="L133">
         <v>151</v>
       </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N133" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -17645,6 +19849,14 @@
       <c r="O133" t="inlineStr">
         <is>
           <t>Burial society</t>
+        </is>
+      </c>
+      <c r="P133">
+        <v>999</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -17674,6 +19886,11 @@
       </c>
       <c r="W133">
         <v>16</v>
+      </c>
+      <c r="X133" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y133">
         <v>16</v>
@@ -17766,6 +19983,21 @@
       <c r="L134">
         <v>158</v>
       </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P134">
         <v>14</v>
       </c>
@@ -17898,9 +20130,27 @@
       <c r="L135">
         <v>164</v>
       </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N135" t="inlineStr">
         <is>
           <t>Savings club</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P135">
+        <v>999</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
@@ -17930,6 +20180,11 @@
       </c>
       <c r="W135">
         <v>25</v>
+      </c>
+      <c r="X135" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y135">
         <v>23</v>
@@ -18022,6 +20277,21 @@
       <c r="L136">
         <v>164</v>
       </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P136">
         <v>90</v>
       </c>
@@ -18154,9 +20424,27 @@
       <c r="L137">
         <v>157</v>
       </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N137" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P137">
+        <v>999</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
@@ -18186,6 +20474,11 @@
       </c>
       <c r="W137">
         <v>28</v>
+      </c>
+      <c r="X137" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y137">
         <v>24</v>
@@ -18278,6 +20571,11 @@
       <c r="L138">
         <v>160</v>
       </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N138" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -18420,6 +20718,29 @@
       <c r="L139">
         <v>165</v>
       </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P139">
+        <v>999</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R139" t="inlineStr">
         <is>
           <t>No</t>
@@ -18447,6 +20768,11 @@
       </c>
       <c r="W139">
         <v>22</v>
+      </c>
+      <c r="X139" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y139">
         <v>19</v>
@@ -18539,6 +20865,11 @@
       <c r="L140">
         <v>148</v>
       </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N140" t="inlineStr">
         <is>
           <t>Burial society</t>
@@ -18606,6 +20937,11 @@
       <c r="AB140" t="inlineStr">
         <is>
           <t>17+years</t>
+        </is>
+      </c>
+      <c r="AC140" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="AD140">
@@ -18676,6 +21012,29 @@
       <c r="L141">
         <v>160</v>
       </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P141">
+        <v>999</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R141" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -18703,6 +21062,11 @@
       </c>
       <c r="W141">
         <v>31</v>
+      </c>
+      <c r="X141" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y141">
         <v>26</v>
@@ -18838,6 +21202,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="W142">
+        <v>999</v>
+      </c>
       <c r="X142" t="inlineStr">
         <is>
           <t>Gud</t>
@@ -18934,6 +21306,29 @@
       <c r="L143">
         <v>157</v>
       </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P143">
+        <v>999</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R143" t="inlineStr">
         <is>
           <t>No</t>
@@ -18961,6 +21356,11 @@
       </c>
       <c r="W143">
         <v>26</v>
+      </c>
+      <c r="X143" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y143">
         <v>20</v>
@@ -19053,6 +21453,11 @@
       <c r="L144">
         <v>168</v>
       </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N144" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -19195,6 +21600,11 @@
       <c r="L145">
         <v>163</v>
       </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N145" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -19203,6 +21613,14 @@
       <c r="O145" t="inlineStr">
         <is>
           <t>Savings club</t>
+        </is>
+      </c>
+      <c r="P145">
+        <v>999</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
@@ -19232,6 +21650,11 @@
       </c>
       <c r="W145">
         <v>22</v>
+      </c>
+      <c r="X145" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y145">
         <v>20</v>
@@ -19324,6 +21747,11 @@
       <c r="L146">
         <v>151</v>
       </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N146" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -19466,9 +21894,27 @@
       <c r="L147">
         <v>158</v>
       </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N147" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P147">
+        <v>999</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
@@ -19498,6 +21944,11 @@
       </c>
       <c r="W147">
         <v>36</v>
+      </c>
+      <c r="X147" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y147">
         <v>21</v>
@@ -19590,9 +22041,19 @@
       <c r="L148">
         <v>156</v>
       </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N148" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P148">
@@ -19727,9 +22188,27 @@
       <c r="L149">
         <v>169</v>
       </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N149" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P149">
+        <v>999</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
@@ -19759,6 +22238,11 @@
       </c>
       <c r="W149">
         <v>34</v>
+      </c>
+      <c r="X149" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y149">
         <v>21</v>
@@ -19851,6 +22335,21 @@
       <c r="L150">
         <v>168</v>
       </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P150">
         <v>4</v>
       </c>
@@ -19983,9 +22482,27 @@
       <c r="L151">
         <v>159</v>
       </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N151" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P151">
+        <v>999</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
@@ -20015,6 +22532,11 @@
       </c>
       <c r="W151">
         <v>21</v>
+      </c>
+      <c r="X151" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y151">
         <v>20</v>
@@ -20117,6 +22639,11 @@
           <t>Savings club</t>
         </is>
       </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P152">
         <v>28</v>
       </c>
@@ -20249,6 +22776,11 @@
       <c r="L153">
         <v>166</v>
       </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N153" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -20257,6 +22789,14 @@
       <c r="O153" t="inlineStr">
         <is>
           <t>Burial society</t>
+        </is>
+      </c>
+      <c r="P153">
+        <v>999</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
@@ -20286,6 +22826,11 @@
       </c>
       <c r="W153">
         <v>28</v>
+      </c>
+      <c r="X153" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y153">
         <v>20</v>
@@ -20378,9 +22923,19 @@
       <c r="L154">
         <v>165</v>
       </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N154" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P154">
@@ -20515,6 +23070,11 @@
       <c r="L155">
         <v>155</v>
       </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N155" t="inlineStr">
         <is>
           <t>Savings club</t>
@@ -20523,6 +23083,14 @@
       <c r="O155" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="P155">
+        <v>999</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R155" t="inlineStr">
@@ -20552,6 +23120,11 @@
       </c>
       <c r="W155">
         <v>21</v>
+      </c>
+      <c r="X155" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y155">
         <v>16</v>
@@ -20654,6 +23227,11 @@
           <t>Savings club</t>
         </is>
       </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P156">
         <v>7</v>
       </c>
@@ -20681,6 +23259,14 @@
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="W156">
+        <v>999</v>
       </c>
       <c r="X156" t="inlineStr">
         <is>
@@ -20778,9 +23364,27 @@
       <c r="L157">
         <v>174</v>
       </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N157" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P157">
+        <v>999</v>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R157" t="inlineStr">
@@ -20810,6 +23414,11 @@
       </c>
       <c r="W157">
         <v>34</v>
+      </c>
+      <c r="X157" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y157">
         <v>20</v>
@@ -20907,6 +23516,16 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P158">
         <v>14</v>
       </c>
@@ -20934,6 +23553,14 @@
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="V158" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="W158">
+        <v>999</v>
       </c>
       <c r="X158" t="inlineStr">
         <is>
@@ -21031,6 +23658,11 @@
       <c r="L159">
         <v>168</v>
       </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N159" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -21039,6 +23671,14 @@
       <c r="O159" t="inlineStr">
         <is>
           <t>Burial society</t>
+        </is>
+      </c>
+      <c r="P159">
+        <v>999</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R159" t="inlineStr">
@@ -21068,6 +23708,11 @@
       </c>
       <c r="W159">
         <v>26</v>
+      </c>
+      <c r="X159" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y159">
         <v>16</v>
@@ -21160,9 +23805,19 @@
       <c r="L160">
         <v>173</v>
       </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N160" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P160">
@@ -21297,6 +23952,29 @@
       <c r="L161">
         <v>148</v>
       </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P161">
+        <v>999</v>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R161" t="inlineStr">
         <is>
           <t>No</t>
@@ -21324,6 +24002,11 @@
       </c>
       <c r="W161">
         <v>43</v>
+      </c>
+      <c r="X161" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y161">
         <v>17</v>
@@ -21416,9 +24099,19 @@
       <c r="L162">
         <v>163</v>
       </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N162" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P162">
@@ -21553,9 +24246,27 @@
       <c r="L163">
         <v>156</v>
       </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N163" t="inlineStr">
         <is>
           <t>Savings club</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P163">
+        <v>999</v>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R163" t="inlineStr">
@@ -21585,6 +24296,11 @@
       </c>
       <c r="W163">
         <v>30</v>
+      </c>
+      <c r="X163" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y163">
         <v>17</v>
@@ -21677,6 +24393,21 @@
       <c r="L164">
         <v>156</v>
       </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P164">
         <v>60</v>
       </c>
@@ -21809,6 +24540,29 @@
       <c r="L165">
         <v>163</v>
       </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P165">
+        <v>999</v>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R165" t="inlineStr">
         <is>
           <t>No</t>
@@ -21836,6 +24590,11 @@
       </c>
       <c r="W165">
         <v>45</v>
+      </c>
+      <c r="X165" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y165">
         <v>21</v>
@@ -21928,6 +24687,21 @@
       <c r="L166">
         <v>162</v>
       </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P166">
         <v>3</v>
       </c>
@@ -22060,6 +24834,29 @@
       <c r="L167">
         <v>152</v>
       </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P167">
+        <v>999</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R167" t="inlineStr">
         <is>
           <t>No</t>
@@ -22087,6 +24884,11 @@
       </c>
       <c r="W167">
         <v>27</v>
+      </c>
+      <c r="X167" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y167">
         <v>20</v>
@@ -22179,9 +24981,19 @@
       <c r="L168">
         <v>158</v>
       </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N168" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P168">
@@ -22316,6 +25128,29 @@
       <c r="L169">
         <v>169</v>
       </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="P169">
+        <v>999</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R169" t="inlineStr">
         <is>
           <t>No</t>
@@ -22343,6 +25178,11 @@
       </c>
       <c r="W169">
         <v>27</v>
+      </c>
+      <c r="X169" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y169">
         <v>17</v>
@@ -22435,9 +25275,19 @@
       <c r="L170">
         <v>158</v>
       </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N170" t="inlineStr">
         <is>
           <t>Burial society</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P170">
@@ -22572,6 +25422,11 @@
       <c r="L171">
         <v>149</v>
       </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N171" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -22617,6 +25472,11 @@
       </c>
       <c r="W171">
         <v>28</v>
+      </c>
+      <c r="X171" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y171">
         <v>18</v>
@@ -22709,9 +25569,19 @@
       <c r="L172">
         <v>147</v>
       </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N172" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P172">
@@ -22741,6 +25611,14 @@
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="V172" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="W172">
+        <v>999</v>
       </c>
       <c r="X172" t="inlineStr">
         <is>
@@ -22838,6 +25716,11 @@
       <c r="L173">
         <v>161</v>
       </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N173" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -22883,6 +25766,11 @@
       </c>
       <c r="W173">
         <v>38</v>
+      </c>
+      <c r="X173" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y173">
         <v>18</v>
@@ -22980,6 +25868,16 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P174">
         <v>60</v>
       </c>
@@ -23007,6 +25905,14 @@
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="W174">
+        <v>999</v>
       </c>
       <c r="X174" t="inlineStr">
         <is>
@@ -23155,6 +26061,11 @@
       <c r="W175">
         <v>20</v>
       </c>
+      <c r="X175" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="Y175">
         <v>19</v>
       </c>
@@ -23251,6 +26162,16 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P176">
         <v>21</v>
       </c>
@@ -23383,6 +26304,11 @@
       <c r="L177">
         <v>164</v>
       </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N177" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -23391,6 +26317,14 @@
       <c r="O177" t="inlineStr">
         <is>
           <t>Burial society</t>
+        </is>
+      </c>
+      <c r="P177">
+        <v>999</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R177" t="inlineStr">
@@ -23420,6 +26354,11 @@
       </c>
       <c r="W177">
         <v>19</v>
+      </c>
+      <c r="X177" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y177">
         <v>25</v>
@@ -23512,6 +26451,11 @@
       <c r="L178">
         <v>175</v>
       </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N178" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -23654,9 +26598,19 @@
       <c r="L179">
         <v>155</v>
       </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N179" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P179">
@@ -23694,6 +26648,11 @@
       </c>
       <c r="W179">
         <v>41</v>
+      </c>
+      <c r="X179" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y179">
         <v>17</v>
@@ -23786,6 +26745,21 @@
       <c r="L180">
         <v>167</v>
       </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P180">
         <v>7</v>
       </c>
@@ -23918,6 +26892,11 @@
       <c r="L181">
         <v>169</v>
       </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N181" t="inlineStr">
         <is>
           <t>Burial society</t>
@@ -23963,6 +26942,11 @@
       </c>
       <c r="W181">
         <v>22</v>
+      </c>
+      <c r="X181" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y181">
         <v>19</v>
@@ -24055,9 +27039,19 @@
       <c r="L182">
         <v>161</v>
       </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N182" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P182">
@@ -24192,9 +27186,19 @@
       <c r="L183">
         <v>149</v>
       </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N183" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P183">
@@ -24232,6 +27236,11 @@
       </c>
       <c r="W183">
         <v>22</v>
+      </c>
+      <c r="X183" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y183">
         <v>20</v>
@@ -24324,6 +27333,21 @@
       <c r="L184">
         <v>165</v>
       </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P184">
         <v>3</v>
       </c>
@@ -24456,6 +27480,11 @@
       <c r="L185">
         <v>167</v>
       </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N185" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -24492,6 +27521,19 @@
       <c r="U185" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="V185" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="W185">
+        <v>999</v>
+      </c>
+      <c r="X185" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="Y185">
@@ -24585,6 +27627,11 @@
       <c r="L186">
         <v>157</v>
       </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N186" t="inlineStr">
         <is>
           <t>Burial society</t>
@@ -24636,6 +27683,9 @@
           <t>Ud</t>
         </is>
       </c>
+      <c r="Y186">
+        <v>999</v>
+      </c>
       <c r="Z186" t="inlineStr">
         <is>
           <t>No</t>
@@ -24644,6 +27694,11 @@
       <c r="AA186" t="inlineStr">
         <is>
           <t>Spouse</t>
+        </is>
+      </c>
+      <c r="AB186" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="AC186" t="inlineStr">
@@ -24719,6 +27774,11 @@
       <c r="L187">
         <v>155</v>
       </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N187" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -24764,6 +27824,11 @@
       </c>
       <c r="W187">
         <v>36</v>
+      </c>
+      <c r="X187" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y187">
         <v>19</v>
@@ -24853,9 +27918,22 @@
       <c r="K188">
         <v>55</v>
       </c>
+      <c r="L188">
+        <v>999</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N188" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P188">
@@ -24990,6 +28068,11 @@
       <c r="L189">
         <v>166</v>
       </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N189" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -25035,6 +28118,11 @@
       </c>
       <c r="W189">
         <v>25</v>
+      </c>
+      <c r="X189" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y189">
         <v>19</v>
@@ -25127,9 +28215,19 @@
       <c r="L190">
         <v>158</v>
       </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N190" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P190">
@@ -25264,6 +28362,11 @@
       <c r="L191">
         <v>157</v>
       </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N191" t="inlineStr">
         <is>
           <t>Business association</t>
@@ -25300,6 +28403,19 @@
       <c r="U191" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="V191" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="W191">
+        <v>999</v>
+      </c>
+      <c r="X191" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="Y191">
@@ -25403,6 +28519,11 @@
           <t>Religious group</t>
         </is>
       </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P192">
         <v>5</v>
       </c>
@@ -25535,6 +28656,11 @@
       <c r="L193">
         <v>170</v>
       </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N193" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -25543,6 +28669,14 @@
       <c r="O193" t="inlineStr">
         <is>
           <t>Burial society</t>
+        </is>
+      </c>
+      <c r="P193">
+        <v>999</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="R193" t="inlineStr">
@@ -25572,6 +28706,11 @@
       </c>
       <c r="W193">
         <v>18</v>
+      </c>
+      <c r="X193" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y193">
         <v>20</v>
@@ -25664,6 +28803,21 @@
       <c r="L194">
         <v>174</v>
       </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P194">
         <v>7</v>
       </c>
@@ -25796,6 +28950,11 @@
       <c r="L195">
         <v>158</v>
       </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N195" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -25841,6 +29000,11 @@
       </c>
       <c r="W195">
         <v>32</v>
+      </c>
+      <c r="X195" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y195">
         <v>28</v>
@@ -25933,6 +29097,21 @@
       <c r="L196">
         <v>160</v>
       </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P196">
         <v>2</v>
       </c>
@@ -26065,6 +29244,11 @@
       <c r="L197">
         <v>168</v>
       </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N197" t="inlineStr">
         <is>
           <t>Savings club</t>
@@ -26110,6 +29294,11 @@
       </c>
       <c r="W197">
         <v>34</v>
+      </c>
+      <c r="X197" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y197">
         <v>22</v>
@@ -26202,9 +29391,19 @@
       <c r="L198">
         <v>157</v>
       </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N198" t="inlineStr">
         <is>
           <t>Savings club</t>
+        </is>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P198">
@@ -26339,6 +29538,21 @@
       <c r="L199">
         <v>167</v>
       </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P199">
         <v>3</v>
       </c>
@@ -26367,8 +29581,18 @@
           <t>No</t>
         </is>
       </c>
+      <c r="V199" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="W199">
         <v>33</v>
+      </c>
+      <c r="X199" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y199">
         <v>20</v>
@@ -26461,6 +29685,11 @@
       <c r="L200">
         <v>161</v>
       </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N200" t="inlineStr">
         <is>
           <t>Savings club</t>
@@ -26603,9 +29832,19 @@
       <c r="L201">
         <v>149</v>
       </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N201" t="inlineStr">
         <is>
           <t>Burial society</t>
+        </is>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P201">
@@ -26634,6 +29873,19 @@
       <c r="U201" t="inlineStr">
         <is>
           <t>Yes</t>
+        </is>
+      </c>
+      <c r="V201" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="W201">
+        <v>999</v>
+      </c>
+      <c r="X201" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="Y201">
@@ -26727,6 +29979,21 @@
       <c r="L202">
         <v>161</v>
       </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P202">
         <v>30</v>
       </c>
@@ -26859,6 +30126,21 @@
       <c r="L203">
         <v>172</v>
       </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P203">
         <v>60</v>
       </c>
@@ -26894,6 +30176,11 @@
       </c>
       <c r="W203">
         <v>25</v>
+      </c>
+      <c r="X203" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y203">
         <v>19</v>
@@ -26986,6 +30273,21 @@
       <c r="L204">
         <v>166</v>
       </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P204">
         <v>7</v>
       </c>
@@ -27013,6 +30315,14 @@
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="V204" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="W204">
+        <v>999</v>
       </c>
       <c r="X204" t="inlineStr">
         <is>
@@ -27110,6 +30420,11 @@
       <c r="L205">
         <v>153</v>
       </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N205" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -27155,6 +30470,11 @@
       </c>
       <c r="W205">
         <v>20</v>
+      </c>
+      <c r="X205" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y205">
         <v>26</v>
@@ -27247,6 +30567,11 @@
       <c r="L206">
         <v>154</v>
       </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N206" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -27284,6 +30609,14 @@
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="V206" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="W206">
+        <v>999</v>
       </c>
       <c r="X206" t="inlineStr">
         <is>
@@ -27381,9 +30714,19 @@
       <c r="L207">
         <v>155</v>
       </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N207" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P207">
@@ -27421,6 +30764,11 @@
       </c>
       <c r="W207">
         <v>18</v>
+      </c>
+      <c r="X207" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y207">
         <v>19</v>
@@ -27513,9 +30861,19 @@
       <c r="L208">
         <v>163</v>
       </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N208" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P208">
@@ -27650,6 +31008,21 @@
       <c r="L209">
         <v>164</v>
       </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P209">
         <v>7</v>
       </c>
@@ -27685,6 +31058,11 @@
       </c>
       <c r="W209">
         <v>28</v>
+      </c>
+      <c r="X209" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y209">
         <v>19</v>
@@ -27777,6 +31155,21 @@
       <c r="L210">
         <v>157</v>
       </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P210">
         <v>21</v>
       </c>
@@ -27909,9 +31302,19 @@
       <c r="L211">
         <v>170</v>
       </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N211" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P211">
@@ -27949,6 +31352,11 @@
       </c>
       <c r="W211">
         <v>21</v>
+      </c>
+      <c r="X211" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y211">
         <v>21</v>
@@ -28041,6 +31449,21 @@
       <c r="L212">
         <v>159</v>
       </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P212">
         <v>150</v>
       </c>
@@ -28173,6 +31596,11 @@
       <c r="L213">
         <v>154</v>
       </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N213" t="inlineStr">
         <is>
           <t>Burial society</t>
@@ -28218,6 +31646,11 @@
       </c>
       <c r="W213">
         <v>33</v>
+      </c>
+      <c r="X213" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y213">
         <v>14</v>
@@ -28310,9 +31743,19 @@
       <c r="L214">
         <v>155</v>
       </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N214" t="inlineStr">
         <is>
           <t>Burial society</t>
+        </is>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P214">
@@ -28447,9 +31890,19 @@
       <c r="L215">
         <v>173</v>
       </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N215" t="inlineStr">
         <is>
           <t>Burial society</t>
+        </is>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P215">
@@ -28478,6 +31931,19 @@
       <c r="U215" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="V215" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="W215">
+        <v>999</v>
+      </c>
+      <c r="X215" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="Y215">
@@ -28571,6 +32037,21 @@
       <c r="L216">
         <v>182</v>
       </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P216">
         <v>30</v>
       </c>
@@ -28598,6 +32079,14 @@
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="V216" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="W216">
+        <v>999</v>
       </c>
       <c r="X216" t="inlineStr">
         <is>
@@ -28695,9 +32184,19 @@
       <c r="L217">
         <v>167</v>
       </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N217" t="inlineStr">
         <is>
           <t>Savings club</t>
+        </is>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P217">
@@ -28735,6 +32234,11 @@
       </c>
       <c r="W217">
         <v>54</v>
+      </c>
+      <c r="X217" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y217">
         <v>17</v>
@@ -28870,14 +32374,35 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="V218" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="W218">
+        <v>999</v>
+      </c>
       <c r="X218" t="inlineStr">
         <is>
           <t>Gud</t>
         </is>
       </c>
+      <c r="Y218">
+        <v>999</v>
+      </c>
+      <c r="Z218" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="AA218" t="inlineStr">
         <is>
           <t>Spouse</t>
+        </is>
+      </c>
+      <c r="AB218" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="AC218" t="inlineStr">
@@ -28953,6 +32478,21 @@
       <c r="L219">
         <v>148</v>
       </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P219">
         <v>2</v>
       </c>
@@ -28979,6 +32519,19 @@
       <c r="U219" t="inlineStr">
         <is>
           <t>Yes</t>
+        </is>
+      </c>
+      <c r="V219" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="W219">
+        <v>999</v>
+      </c>
+      <c r="X219" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="Y219">
@@ -29072,6 +32625,11 @@
       <c r="L220">
         <v>180</v>
       </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N220" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -29214,6 +32772,11 @@
       <c r="L221">
         <v>163</v>
       </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N221" t="inlineStr">
         <is>
           <t>Burial society</t>
@@ -29250,6 +32813,19 @@
       <c r="U221" t="inlineStr">
         <is>
           <t>Yes</t>
+        </is>
+      </c>
+      <c r="V221" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="W221">
+        <v>999</v>
+      </c>
+      <c r="X221" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="Y221">
@@ -29343,9 +32919,19 @@
       <c r="L222">
         <v>169</v>
       </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N222" t="inlineStr">
         <is>
           <t>Savings club</t>
+        </is>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P222">
@@ -29480,6 +33066,11 @@
       <c r="L223">
         <v>168</v>
       </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N223" t="inlineStr">
         <is>
           <t>Religious group</t>
@@ -29493,6 +33084,11 @@
       <c r="P223">
         <v>5</v>
       </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R223" t="inlineStr">
         <is>
           <t>No</t>
@@ -29520,6 +33116,11 @@
       </c>
       <c r="W223">
         <v>28</v>
+      </c>
+      <c r="X223" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y223">
         <v>24</v>
@@ -29612,6 +33213,21 @@
       <c r="L224">
         <v>154</v>
       </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="P224">
         <v>14</v>
       </c>
@@ -29744,6 +33360,11 @@
       <c r="L225">
         <v>157</v>
       </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N225" t="inlineStr">
         <is>
           <t>Burial society</t>
@@ -29789,6 +33410,11 @@
       </c>
       <c r="W225">
         <v>28</v>
+      </c>
+      <c r="X225" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y225">
         <v>20</v>
@@ -30028,14 +33654,29 @@
       <c r="L227">
         <v>160</v>
       </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N227" t="inlineStr">
         <is>
           <t>Burial society</t>
+        </is>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P227">
         <v>2</v>
       </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="R227" t="inlineStr">
         <is>
           <t>No</t>
@@ -30063,6 +33704,11 @@
       </c>
       <c r="W227">
         <v>30</v>
+      </c>
+      <c r="X227" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
       </c>
       <c r="Y227">
         <v>20</v>
@@ -30155,9 +33801,19 @@
       <c r="L228">
         <v>155</v>
       </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
       <c r="N228" t="inlineStr">
         <is>
           <t>Religious group</t>
+        </is>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>999</t>
         </is>
       </c>
       <c r="P228">
@@ -30187,6 +33843,14 @@
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="V228" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="W228">
+        <v>999</v>
       </c>
       <c r="X228" t="inlineStr">
         <is>
